--- a/arquivos_postos/output/10800554000127.xlsx
+++ b/arquivos_postos/output/10800554000127.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,6 +485,11 @@
       <c r="G2" t="n">
         <v>25.034</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,6 +512,11 @@
       <c r="G3" t="n">
         <v>24.009</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +539,11 @@
       <c r="G4" t="n">
         <v>7.347</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -546,6 +566,11 @@
       <c r="G5" t="n">
         <v>40.704</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -568,6 +593,11 @@
       <c r="G6" t="n">
         <v>60</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -589,6 +619,11 @@
       </c>
       <c r="G7" t="n">
         <v>20</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -602,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +671,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -655,6 +695,11 @@
       <c r="E2" t="n">
         <v>10433</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -674,6 +719,11 @@
       <c r="E3" t="n">
         <v>37500</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +742,11 @@
       </c>
       <c r="E4" t="n">
         <v>15000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
       </c>
     </row>
   </sheetData>
